--- a/ig/narratif-scenario-retour-platine-2/CodeSystem-ror-include-associated-data-code-system.xlsx
+++ b/ig/narratif-scenario-retour-platine-2/CodeSystem-ror-include-associated-data-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T15:54:15+00:00</t>
+    <t>2024-02-15T10:01:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/narratif-scenario-retour-platine-2/CodeSystem-ror-include-associated-data-code-system.xlsx
+++ b/ig/narratif-scenario-retour-platine-2/CodeSystem-ror-include-associated-data-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T10:01:20+00:00</t>
+    <t>2024-02-15T16:29:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/narratif-scenario-retour-platine-2/CodeSystem-ror-include-associated-data-code-system.xlsx
+++ b/ig/narratif-scenario-retour-platine-2/CodeSystem-ror-include-associated-data-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:29:18+00:00</t>
+    <t>2024-02-15T16:54:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
